--- a/data/trans_dic/P44D-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P44D-Dificultad-trans_dic.xlsx
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01349705933058652</v>
+        <v>0.01340256186888282</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -709,28 +709,28 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.1194338708186886</v>
+        <v>0.1015000847603195</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1018063643759334</v>
+        <v>0.08331876835277746</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1801352146773369</v>
+        <v>0.1807354970637399</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2239502959310581</v>
+        <v>0.2271283640049963</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04177070077489998</v>
+        <v>0.03776818780019225</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1259080594493709</v>
+        <v>0.1164510267051544</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1188075428361417</v>
+        <v>0.1126963373670284</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03664304051931758</v>
+        <v>0.03999836854111325</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.108297506651443</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.02408693688679254</v>
+        <v>0.02408693688679253</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02330676515528339</v>
+        <v>0.02559208803642958</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05604995645309674</v>
+        <v>0.07370656936881172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01004284716000304</v>
+        <v>0.009689870219914598</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0365096612316338</v>
+        <v>0.05033307403996735</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006510807928101181</v>
+        <v>0.006366161185943585</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05138410980581993</v>
+        <v>0.04522668648341611</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05326485213935189</v>
+        <v>0.04696662651994615</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01235918720905973</v>
+        <v>0.01234378204795809</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.226716619422493</v>
+        <v>0.2449216853538751</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2932585112778025</v>
+        <v>0.3004709987695455</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06470861708731161</v>
+        <v>0.06375087535984497</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3584470575444153</v>
+        <v>0.3584988905555097</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2015335956830327</v>
+        <v>0.2021289590422874</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04254591532819191</v>
+        <v>0.04052791233720766</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.231499110522377</v>
+        <v>0.2251125819048758</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2168249102286526</v>
+        <v>0.2033862323647912</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04528505225971002</v>
+        <v>0.04330641289738994</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.2343993137618759</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.0931211110195176</v>
+        <v>0.09312111101951764</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.1400802742913242</v>
@@ -892,28 +892,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01912091918427548</v>
+        <v>0.02024132664494394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05032220059775788</v>
+        <v>0.05158443403708914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09915183906593392</v>
+        <v>0.1012938075838531</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0812011106822686</v>
+        <v>0.08297542020905237</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06201982212747369</v>
+        <v>0.06112049748574971</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06049682605580684</v>
+        <v>0.05950447011958166</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07481115305210985</v>
+        <v>0.06966090471106211</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06256992741757753</v>
+        <v>0.06585976922759348</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1673175676736093</v>
+        <v>0.1430420790094364</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1799697685560699</v>
+        <v>0.1963506371435235</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1307015048519436</v>
+        <v>0.1265298179932731</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5213677707652208</v>
+        <v>0.5185658822476137</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4295777539692054</v>
+        <v>0.4472591222244191</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1408143674773358</v>
+        <v>0.13880087380551</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2756887971202804</v>
+        <v>0.2632218448041538</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2510467861210138</v>
+        <v>0.2504290444120809</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1194842912682421</v>
+        <v>0.1178140514152804</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2069531163438882</v>
+        <v>0.2201316124498323</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1978575188605621</v>
+        <v>0.1976883795902731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1436264640385418</v>
+        <v>0.1454841117401697</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1013807772759923</v>
+        <v>0.09992222095290711</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1082915110606881</v>
+        <v>0.1040948881617217</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2160931202983893</v>
+        <v>0.1980052558625278</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1578548815197256</v>
+        <v>0.1677654673130835</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1393886512656101</v>
+        <v>0.1400922620973755</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6858838400930551</v>
+        <v>0.6816746827778076</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5231111420333914</v>
+        <v>0.5418522443600506</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2546471285039653</v>
+        <v>0.2530574059811926</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6189500540651633</v>
+        <v>0.5963621664104138</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.367463582665343</v>
+        <v>0.3924357403228912</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1953250021214315</v>
+        <v>0.1977430916538343</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5826054833241368</v>
+        <v>0.5469229002110948</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4123752052940288</v>
+        <v>0.3999983290139643</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2121575619565918</v>
+        <v>0.2120713320126805</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09473154835688595</v>
+        <v>0.09897901818475809</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07668947106136911</v>
+        <v>0.07721277281899513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1094933886086231</v>
+        <v>0.1089055714289755</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06121745751657975</v>
+        <v>0.05836799519533228</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0570024284652619</v>
+        <v>0.05693885675530898</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09957490247078504</v>
+        <v>0.1057949689035786</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09615536693800635</v>
+        <v>0.09017909855096307</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07094423307093342</v>
+        <v>0.07159860090079886</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2116925156200556</v>
+        <v>0.2172085241480547</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1247333575459312</v>
+        <v>0.1243027135197664</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2674929413246837</v>
+        <v>0.2742737836556378</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1940928934743581</v>
+        <v>0.1931950527871795</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09181986121026739</v>
+        <v>0.09092358347574218</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2143753298656221</v>
+        <v>0.2164450712193177</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1793277092096305</v>
+        <v>0.1779684853278844</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1009698689663703</v>
+        <v>0.1014171133092808</v>
       </c>
     </row>
     <row r="19">
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1429,28 +1429,28 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>5033</v>
+        <v>4277</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6213</v>
+        <v>5085</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6402</v>
+        <v>6423</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7074</v>
+        <v>7175</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>3745</v>
+        <v>3386</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7413</v>
+        <v>6857</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8760</v>
+        <v>8309</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5521</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="8">
@@ -1535,31 +1535,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>839</v>
+        <v>922</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2256</v>
+        <v>2967</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1472</v>
+        <v>1420</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1156</v>
+        <v>1593</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3477</v>
+        <v>3060</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3763</v>
+        <v>3318</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3683</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="11">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8165</v>
+        <v>8821</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11806</v>
+        <v>12096</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9482</v>
+        <v>9341</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11346</v>
+        <v>11347</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6125</v>
+        <v>6143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6444</v>
+        <v>6138</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15665</v>
+        <v>15233</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15319</v>
+        <v>14369</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>13494</v>
+        <v>12904</v>
       </c>
     </row>
     <row r="12">
@@ -1682,28 +1682,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>714</v>
+        <v>755</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9067</v>
+        <v>9295</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2254</v>
+        <v>2303</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2215</v>
+        <v>2263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8735</v>
+        <v>8608</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3132</v>
+        <v>3081</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4833</v>
+        <v>4500</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>20086</v>
+        <v>21142</v>
       </c>
     </row>
     <row r="15">
@@ -1714,31 +1714,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4859</v>
+        <v>4154</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6717</v>
+        <v>7328</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23551</v>
+        <v>22799</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11853</v>
+        <v>11790</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11718</v>
+        <v>12200</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19832</v>
+        <v>19548</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14274</v>
+        <v>13628</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16218</v>
+        <v>16178</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>38357</v>
+        <v>37821</v>
       </c>
     </row>
     <row r="16">
@@ -1823,31 +1823,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5031</v>
+        <v>5352</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7328</v>
+        <v>7321</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26214</v>
+        <v>26553</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1935</v>
+        <v>1907</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15594</v>
+        <v>14990</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9378</v>
+        <v>8593</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8931</v>
+        <v>9492</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>45512</v>
+        <v>45742</v>
       </c>
     </row>
     <row r="19">
@@ -1858,31 +1858,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16675</v>
+        <v>16573</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19373</v>
+        <v>20067</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>46476</v>
+        <v>46186</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11813</v>
+        <v>11382</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7182</v>
+        <v>7670</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28127</v>
+        <v>28475</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25284</v>
+        <v>23735</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23332</v>
+        <v>22632</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>69272</v>
+        <v>69244</v>
       </c>
     </row>
     <row r="20">
@@ -1967,31 +1967,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14850</v>
+        <v>15516</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43733</v>
+        <v>44031</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11936</v>
+        <v>11872</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6661</v>
+        <v>6351</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>29980</v>
+        <v>29947</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>22078</v>
+        <v>23457</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25535</v>
+        <v>23948</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>77769</v>
+        <v>78486</v>
       </c>
     </row>
     <row r="23">
@@ -2002,31 +2002,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33184</v>
+        <v>34049</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>71130</v>
+        <v>70884</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29160</v>
+        <v>29899</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21118</v>
+        <v>21020</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>48292</v>
+        <v>47821</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>47531</v>
+        <v>47990</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>47622</v>
+        <v>47261</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>110683</v>
+        <v>111173</v>
       </c>
     </row>
     <row r="24">
